--- a/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
+++ b/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
@@ -451,323 +451,433 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8985</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>161217</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>国投瑞银中证上游资源产业指数(LOF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>92.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>690008</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>94.81</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>512400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>南方中证申万有色金属ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -846,25 +976,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512400</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中证申万有色金属ETF</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>161217</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>001415</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>信诚新锐回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1192,15 +1442,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>21.23</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>004157</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合B</t>
+          <t>信诚至诚灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001415</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合A</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002046</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合B</t>
+          <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>161217</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+          <t>信诚新选回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.40</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>690008</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>民生加银中证内地资源主题指数</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1416,15 +1746,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1.52</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007770</t>
+          <t>003234</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>同泰开泰混合A</t>
+          <t>信诚至利灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007771</t>
+          <t>004158</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>同泰开泰混合C</t>
+          <t>信诚至诚灵活配置混合B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003234</t>
+          <t>007770</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合A</t>
+          <t>同泰开泰混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>003235</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合C</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>002046</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>信诚新锐回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>信诚至利灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>6.80</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>5.82</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>007771</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>同泰开泰混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1724,15 +2164,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
+++ b/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4642</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
+++ b/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3386,4 +3387,7314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H192"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6585</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0773</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9980</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8730</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>55.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8611</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7715</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5113</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2760</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2130</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1462</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1373</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9879</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9722</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9386</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8853</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8852</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7776</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7477</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6877</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6327</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6059</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6006</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5057</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4962</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4550</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4243</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3846</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3545</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>61.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>68.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>58.42</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>65.62</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
+++ b/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10697,4 +10698,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
+++ b/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10706,7 +10707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10717,17 +10718,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10737,14 +10758,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>191</v>
-      </c>
-      <c r="D2" t="n">
-        <v>75.09</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -10753,14 +10796,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.97</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -10769,14 +10834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.29</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10785,13 +10872,4557 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7814</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2593</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9170</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8934</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8681</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7867</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7484</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7482</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7418</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5965</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5666</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3977</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519627</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>519628</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银河君润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>191</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
+++ b/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15321,7 +15322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15332,17 +15333,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15352,14 +15373,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>42.45</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15368,14 +15411,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>191</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75.09</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -15384,14 +15449,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.97</v>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -15400,14 +15487,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.29</v>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -15416,13 +15525,4531 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0443</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8331</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6536</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6325</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4609</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2768</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1868</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0321</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8593</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7997</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7714</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7465</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6746</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6286</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5879</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5762</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4779</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4642</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4642</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4421</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>191</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
+++ b/数据整理/stocks/A股/上证主板/600111-北方稀土.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19932,7 +19933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19943,17 +19944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19963,14 +19984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63.3</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -19979,14 +20022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.45</v>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -19995,14 +20060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75.09</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -20011,14 +20098,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.97</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -20027,14 +20136,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.29</v>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -20043,13 +20174,2423 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0862</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012483</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8955</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6949</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6696</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4992</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4525</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012484</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源优质龙头6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013942</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013943</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证稀有金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>191</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.21</v>
       </c>
     </row>
